--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-565081.8333817073</v>
+        <v>-567594.2417630724</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673428</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>85.17289288835083</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>94.81275980261439</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -823,13 +823,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>141.7181018521065</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>7.74613328722392</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>142.0140579452736</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>52.28132789901707</v>
+        <v>242.3977510333375</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>103.5138366730855</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,10 +1063,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -1114,10 +1114,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>137.0528130181265</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>275.2598897337236</v>
       </c>
       <c r="D8" t="n">
-        <v>79.76470074482921</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>149.0579043067397</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>58.91300921516522</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1424,7 +1424,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,7 +1534,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>151.0997254264197</v>
       </c>
       <c r="U13" t="n">
-        <v>68.07731664460452</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890389</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>131.4372279019615</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1777,7 +1777,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186444</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060472</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.03099717513950509</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>81.27859867330056</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>124.199737531646</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>81.07546534818425</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>57.28101103997115</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>104.8913819999782</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>20.38427178197995</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>141.9101287729429</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.330825526173</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,7 +4150,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
         <v>56.98118882652581</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1976.204921733553</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>194.542240332463</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>194.542240332463</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>194.542240332463</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4340,10 +4340,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296685</v>
@@ -4370,10 +4370,10 @@
         <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1976.204921733553</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1976.204921733553</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,64 +4383,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>676.6276301852298</v>
+        <v>700.1577228956174</v>
       </c>
       <c r="C4" t="n">
-        <v>507.6914472573229</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D4" t="n">
-        <v>357.5748078449872</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E4" t="n">
-        <v>209.6617142625941</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>209.6617142625941</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
         <v>66.5121164321834</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1919.470171030691</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U4" t="n">
-        <v>1630.367304156335</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="V4" t="n">
-        <v>1375.682815950448</v>
+        <v>1361.01298720966</v>
       </c>
       <c r="W4" t="n">
-        <v>1086.265645913487</v>
+        <v>1071.595817172699</v>
       </c>
       <c r="X4" t="n">
-        <v>858.2760950154695</v>
+        <v>843.6062662746817</v>
       </c>
       <c r="Y4" t="n">
-        <v>858.2760950154695</v>
+        <v>700.1577228956174</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1624.63871203243</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C5" t="n">
-        <v>1255.676195092019</v>
+        <v>1122.60683175406</v>
       </c>
       <c r="D5" t="n">
-        <v>1255.676195092019</v>
+        <v>764.3411331473096</v>
       </c>
       <c r="E5" t="n">
-        <v>869.8879424937743</v>
+        <v>764.3411331473096</v>
       </c>
       <c r="F5" t="n">
-        <v>458.9020377041667</v>
+        <v>353.3552283577021</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883007</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539436</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.243802269322</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X5" t="n">
-        <v>2014.778044008242</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y5" t="n">
-        <v>1624.63871203243</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
@@ -4650,7 +4650,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>608.0847133907091</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>608.0847133907091</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4762,13 +4762,13 @@
         <v>1450.843444452132</v>
       </c>
       <c r="W7" t="n">
-        <v>1450.843444452132</v>
+        <v>1161.426274415171</v>
       </c>
       <c r="X7" t="n">
-        <v>1312.406259585337</v>
+        <v>933.436723517154</v>
       </c>
       <c r="Y7" t="n">
-        <v>1091.613680441807</v>
+        <v>712.6441443736238</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1698.50962791956</v>
+        <v>1853.982617026599</v>
       </c>
       <c r="C8" t="n">
-        <v>1698.50962791956</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="Y8" t="n">
-        <v>1698.50962791956</v>
+        <v>2240.58245709072</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>380.4321398396066</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>380.4321398396066</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>380.4321398396066</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>380.4321398396066</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1554.964392954241</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V10" t="n">
-        <v>1300.279904748355</v>
+        <v>1586.270116556519</v>
       </c>
       <c r="W10" t="n">
-        <v>1010.862734711394</v>
+        <v>1296.852946519558</v>
       </c>
       <c r="X10" t="n">
-        <v>782.8731838133765</v>
+        <v>1068.863395621541</v>
       </c>
       <c r="Y10" t="n">
-        <v>562.0806046698464</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="11">
@@ -5021,67 +5021,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191925</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>868.6673633290468</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5221,28 +5221,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2111.482263955953</v>
       </c>
       <c r="U13" t="n">
-        <v>2091.550948547923</v>
+        <v>1822.407037300151</v>
       </c>
       <c r="V13" t="n">
-        <v>1836.866460342036</v>
+        <v>1567.722549094264</v>
       </c>
       <c r="W13" t="n">
-        <v>1547.449290305075</v>
+        <v>1278.305379057304</v>
       </c>
       <c r="X13" t="n">
-        <v>1319.459739407056</v>
+        <v>1050.315828159286</v>
       </c>
       <c r="Y13" t="n">
-        <v>1098.667160263526</v>
+        <v>1050.315828159286</v>
       </c>
     </row>
     <row r="14">
@@ -5255,22 +5255,22 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192616</v>
@@ -5285,40 +5285,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>251.5626541092265</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>746.8882603249853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>849.3843576263199</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>680.448174698413</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5461,25 +5461,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U16" t="n">
-        <v>1975.033022579363</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V16" t="n">
-        <v>1720.348534373476</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W16" t="n">
-        <v>1430.931364336515</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X16" t="n">
-        <v>1202.941813438498</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.1492342949679</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5504,58 +5504,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>801.6605733532803</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C19" t="n">
-        <v>632.7243904253734</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253734</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>149.8982754122191</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y19" t="n">
-        <v>983.30903818352</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="20">
@@ -5738,37 +5738,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5829,22 +5829,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>762.5477693179085</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>680.448174698413</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860773</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5975,22 +5975,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
@@ -6005,34 +6005,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6060,10 +6060,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>659.9487421954783</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C25" t="n">
-        <v>491.0125592675714</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D25" t="n">
-        <v>491.0125592675714</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851783</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2138.653968900169</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1849.578742244367</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1849.578742244367</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1560.161572207406</v>
       </c>
       <c r="X25" t="n">
-        <v>1062.389786169248</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y25" t="n">
-        <v>841.597207025718</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6200,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6218,19 +6218,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6242,34 +6242,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>989.3306680894883</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>820.3944851615814</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>670.2778457492457</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>522.3647521668526</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>375.4748046689422</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6418,16 +6418,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1170.979132919728</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6458,25 +6458,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="F31" t="n">
         <v>402.7245934908939</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6680,25 +6680,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075805</v>
@@ -6707,13 +6707,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C34" t="n">
-        <v>407.9027098310023</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D34" t="n">
-        <v>407.9027098310023</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.372910063109</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.518075718013</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="35">
@@ -6929,10 +6929,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6941,13 +6941,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>781.3544215660705</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2236.573815415549</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2016.97235043849</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1727.897123782688</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1473.212635576801</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1183.79546553984</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1183.79546553984</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>963.0028863963103</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7309,19 +7309,19 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656822</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,7 +7421,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
         <v>782.5512955656816</v>
@@ -7558,34 +7558,34 @@
         <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345478</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,34 +7804,34 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
         <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>325.7488327651026</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>274.9183408758547</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22711,13 +22711,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>24.30770640692169</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>23.29479178329576</v>
       </c>
     </row>
     <row r="5">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856336</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>66.30572490086857</v>
       </c>
       <c r="U13" t="n">
-        <v>218.1071577446396</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.39475227997582</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856722</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012035</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>32.89260457059976</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>110.0033420516641</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671011978</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5536561769553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>85.96822242532727</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>93.2057127956423</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>144.6341900408529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2431272522977</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>22.81817176293617</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,22 +25075,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>62.35543909864963</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>45.99097492814173</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,13 +25360,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>39.11615722870167</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1017147.261359584</v>
+        <v>1017147.261359583</v>
       </c>
     </row>
     <row r="3">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>229059.6437758986</v>
+        <v>229059.6437758985</v>
       </c>
       <c r="C2" t="n">
         <v>266838.5752058921</v>
       </c>
       <c r="D2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="E2" t="n">
-        <v>262322.6448992518</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="F2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="G2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="H2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="I2" t="n">
         <v>262322.6448992519</v>
@@ -26338,10 +26338,10 @@
         <v>262322.644899252</v>
       </c>
       <c r="K2" t="n">
+        <v>262322.644899252</v>
+      </c>
+      <c r="L2" t="n">
         <v>262322.6448992519</v>
-      </c>
-      <c r="L2" t="n">
-        <v>262322.644899252</v>
       </c>
       <c r="M2" t="n">
         <v>262322.644899252</v>
@@ -26350,10 +26350,10 @@
         <v>266838.5752058924</v>
       </c>
       <c r="O2" t="n">
-        <v>266838.5752058923</v>
+        <v>266838.5752058922</v>
       </c>
       <c r="P2" t="n">
-        <v>266838.5752058923</v>
+        <v>266838.5752058922</v>
       </c>
     </row>
     <row r="3">
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972772</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363174</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26446.24223584552</v>
+        <v>26446.24223584535</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319404</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319404</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="G4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="H4" t="n">
         <v>13606.80811184275</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="J4" t="n">
+        <v>13606.80811184281</v>
+      </c>
+      <c r="K4" t="n">
+        <v>13606.80811184276</v>
+      </c>
+      <c r="L4" t="n">
+        <v>13606.80811184277</v>
+      </c>
+      <c r="M4" t="n">
         <v>13606.80811184274</v>
       </c>
-      <c r="I4" t="n">
-        <v>13606.8081118428</v>
-      </c>
-      <c r="J4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="K4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="L4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="M4" t="n">
-        <v>13606.80811184273</v>
-      </c>
       <c r="N4" t="n">
+        <v>21597.6673749362</v>
+      </c>
+      <c r="O4" t="n">
+        <v>21597.6673749362</v>
+      </c>
+      <c r="P4" t="n">
         <v>21597.66737493621</v>
-      </c>
-      <c r="O4" t="n">
-        <v>21597.66737493621</v>
-      </c>
-      <c r="P4" t="n">
-        <v>21597.66737493622</v>
       </c>
     </row>
     <row r="5">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1234065.284748933</v>
+        <v>-1234355.891913779</v>
       </c>
       <c r="C6" t="n">
-        <v>66110.79176130482</v>
+        <v>66110.79176130475</v>
       </c>
       <c r="D6" t="n">
-        <v>66110.79176130486</v>
+        <v>66110.79176130478</v>
       </c>
       <c r="E6" t="n">
-        <v>-177819.1548438534</v>
+        <v>-177853.892769289</v>
       </c>
       <c r="F6" t="n">
-        <v>147593.3069635021</v>
+        <v>147558.5690380663</v>
       </c>
       <c r="G6" t="n">
-        <v>147593.3069635023</v>
+        <v>147558.5690380663</v>
       </c>
       <c r="H6" t="n">
-        <v>147593.3069635021</v>
+        <v>147558.5690380663</v>
       </c>
       <c r="I6" t="n">
-        <v>147593.306963502</v>
+        <v>147558.5690380663</v>
       </c>
       <c r="J6" t="n">
-        <v>-69937.89543377535</v>
+        <v>-69972.63335921075</v>
       </c>
       <c r="K6" t="n">
-        <v>147593.3069635021</v>
+        <v>147558.5690380664</v>
       </c>
       <c r="L6" t="n">
-        <v>147593.3069635021</v>
+        <v>147558.5690380663</v>
       </c>
       <c r="M6" t="n">
-        <v>62538.2790279904</v>
+        <v>62503.54110255459</v>
       </c>
       <c r="N6" t="n">
         <v>122649.073983409</v>
       </c>
       <c r="O6" t="n">
-        <v>142076.7919770407</v>
+        <v>142076.7919770404</v>
       </c>
       <c r="P6" t="n">
         <v>142076.7919770406</v>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>24.28464749203968</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203968</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203971</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26790,19 +26790,19 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>211.8028159889453</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>53.2758036235254</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>358.6403977544364</v>
+        <v>168.523974620116</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>76.31814350885175</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,10 +27783,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27834,10 +27834,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>88.65684237091062</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>90.01300203728391</v>
       </c>
       <c r="D8" t="n">
-        <v>274.9183408758537</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>137.1539338988732</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>193.2246341086628</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-6.536993168992922e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>2.168102734382652e-12</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28311,7 +28311,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28503,7 +28503,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28530,7 +28530,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31841,13 +31841,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>399.9031616963282</v>
       </c>
       <c r="M12" t="n">
-        <v>433.9798411722585</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
@@ -31859,7 +31859,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32078,7 +32078,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>146.0225991093084</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473073</v>
@@ -32087,13 +32087,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.5996128485291</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>152.5685698206127</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,16 +32789,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>400.5469039565762</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,7 +33023,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
@@ -33035,7 +33035,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>602.8420149078241</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,16 +33260,16 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>218.6425359394819</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33904,7 +33904,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460027</v>
@@ -33913,7 +33913,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>261.348781916454</v>
       </c>
       <c r="M12" t="n">
-        <v>291.8458072502402</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
@@ -35507,7 +35507,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>8.181160134949373</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674331</v>
@@ -35735,13 +35735,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625076</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>25.73094315394599</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,13 +36440,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>257.9506595121318</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36683,7 +36683,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37716,7 +37716,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q40" t="n">
         <v>144.686904791938</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,13 +37938,13 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
